--- a/Excel/Carbookingcard.xlsx
+++ b/Excel/Carbookingcard.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>Username</t>
   </si>
@@ -279,12 +279,6 @@
     <t>pcc 5444</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>testt</t>
   </si>
   <si>
@@ -324,18 +318,9 @@
     <t>AED</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>HDFC Card</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -397,6 +382,18 @@
   </si>
   <si>
     <t>BRANCH - Ms. Comp 2 Branch  B</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -777,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BZ5" sqref="BZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1063,19 +1060,19 @@
         <v>70</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:76">
@@ -1134,10 +1131,10 @@
         <v>83</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>84</v>
@@ -1167,43 +1164,43 @@
         <v>86</v>
       </c>
       <c r="AD2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>84</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AN2" s="8" t="s">
         <v>76</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AQ2" s="8" t="s">
         <v>76</v>
@@ -1212,100 +1209,100 @@
         <v>83</v>
       </c>
       <c r="AS2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AV2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AX2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="BA2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY2" s="8" t="s">
+      <c r="BE2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BH2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BI2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BJ2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BK2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BL2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="BD2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BM2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BS2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BI2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BO2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BQ2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS2" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="BT2" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="BU2" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BV2" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="BW2" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BX2" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Carbookingcard.xlsx
+++ b/Excel/Carbookingcard.xlsx
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="BZ5" sqref="BZ5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
